--- a/outputs/CVE_caudales_Limari.xlsx
+++ b/outputs/CVE_caudales_Limari.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="19">
   <si>
     <t>Distribución</t>
   </si>
@@ -61,28 +61,16 @@
     <t>Marzo</t>
   </si>
   <si>
-    <t>pearson3</t>
-  </si>
-  <si>
-    <t>logpearson3</t>
-  </si>
-  <si>
-    <t>gumbel_r</t>
+    <t>lognorm</t>
   </si>
   <si>
     <t>Curvas de variación estacional ESTERO PUNITAQUI EN CHALINGA</t>
   </si>
   <si>
-    <t>lognorm</t>
-  </si>
-  <si>
     <t>Curvas de variación estacional ESTERO PUNITAQUI ANTES JUNTA RIO LIMARI</t>
   </si>
   <si>
     <t>Curvas de variación estacional RIO LIMARI EN PANAMERICANA</t>
-  </si>
-  <si>
-    <t>norm</t>
   </si>
   <si>
     <t>Curvas de variación estacional RIO QUILIMARI EN LOS CONDORES</t>
@@ -443,355 +431,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F2" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="G2" s="1">
         <v>0.95</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.042164488709919</v>
+        <v>0.6435789798220513</v>
       </c>
       <c r="C4">
-        <v>0.7723902063866286</v>
+        <v>0.2172285588277618</v>
       </c>
       <c r="D4">
-        <v>0.5098349345176971</v>
+        <v>0.05057994958233492</v>
       </c>
       <c r="E4">
-        <v>0.1850319349421465</v>
+        <v>0.0339626434223031</v>
       </c>
       <c r="F4">
-        <v>0.02899254755465314</v>
-      </c>
-      <c r="G4">
-        <v>0.006222532807614811</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.01702896906777121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.766071661747568</v>
+        <v>0.9587511782644816</v>
       </c>
       <c r="C5">
-        <v>1.431255290610553</v>
+        <v>0.455647968073485</v>
       </c>
       <c r="D5">
-        <v>1.082274312482759</v>
+        <v>0.1394570283089424</v>
       </c>
       <c r="E5">
-        <v>0.575648826238939</v>
+        <v>0.09348543462303402</v>
       </c>
       <c r="F5">
-        <v>0.2033913275581176</v>
-      </c>
-      <c r="G5">
-        <v>0.08605221498119175</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.03874518947463784</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.863592446867187</v>
+        <v>0.7827348290560288</v>
       </c>
       <c r="C6">
-        <v>1.428661617848452</v>
+        <v>0.4007197955372107</v>
       </c>
       <c r="D6">
-        <v>0.9946280445219617</v>
+        <v>0.1381135641114987</v>
       </c>
       <c r="E6">
-        <v>0.4236772214802186</v>
+        <v>0.09724399283764218</v>
       </c>
       <c r="F6">
-        <v>0.09742578255301459</v>
-      </c>
-      <c r="G6">
-        <v>0.03071648962919638</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.04713246828610576</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.581890352560191</v>
+        <v>0.6939424132996692</v>
       </c>
       <c r="C7">
-        <v>1.2285596357992</v>
+        <v>0.379812324512973</v>
       </c>
       <c r="D7">
-        <v>0.8762556187153616</v>
+        <v>0.1523022098972228</v>
       </c>
       <c r="E7">
-        <v>0.4137493491019096</v>
+        <v>0.1154805185669025</v>
       </c>
       <c r="F7">
-        <v>0.150916882136806</v>
-      </c>
-      <c r="G7">
-        <v>0.09772493737029431</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.06955646260412024</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4315950413003006</v>
+        <v>0.5850646449378576</v>
       </c>
       <c r="C8">
-        <v>0.4292844864155862</v>
+        <v>0.3627539672704451</v>
       </c>
       <c r="D8">
-        <v>0.4270154890709263</v>
+        <v>0.1797583558288874</v>
       </c>
       <c r="E8">
-        <v>0.4241246786955117</v>
+        <v>0.1472019621997162</v>
       </c>
       <c r="F8">
-        <v>0.4225953749751558</v>
-      </c>
-      <c r="G8">
-        <v>0.4223231651941008</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.104867239515223</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4164723987231858</v>
+        <v>0.2498469541848272</v>
       </c>
       <c r="C9">
-        <v>0.3484597632134571</v>
+        <v>0.1274892396561663</v>
       </c>
       <c r="D9">
-        <v>0.2775559546102596</v>
+        <v>0.0477333337129941</v>
       </c>
       <c r="E9">
-        <v>0.1704645795722125</v>
+        <v>0.03581050582745095</v>
       </c>
       <c r="F9">
-        <v>0.07533279817100505</v>
-      </c>
-      <c r="G9">
-        <v>0.03216735347791803</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.02144326446673757</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.122647550305692</v>
+        <v>0.1624616519689697</v>
       </c>
       <c r="C10">
-        <v>0.1219136720158027</v>
+        <v>0.1140292868677393</v>
       </c>
       <c r="D10">
-        <v>0.1211918820650989</v>
+        <v>0.06487637913446034</v>
       </c>
       <c r="E10">
-        <v>0.1202680902150723</v>
+        <v>0.05471204371677435</v>
       </c>
       <c r="F10">
-        <v>0.1197724047822134</v>
-      </c>
-      <c r="G10">
-        <v>0.1196816399905805</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.04056326902803992</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1025321433580204</v>
+        <v>0.1250044376727674</v>
       </c>
       <c r="C11">
-        <v>0.1003537387417671</v>
+        <v>0.08772084173806258</v>
       </c>
       <c r="D11">
-        <v>0.09828452060070381</v>
+        <v>0.0533333648053945</v>
       </c>
       <c r="E11">
-        <v>0.09580318700229923</v>
+        <v>0.04669012776466928</v>
       </c>
       <c r="F11">
-        <v>0.09466014311295079</v>
-      </c>
-      <c r="G11">
-        <v>0.09450208486964039</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.03772574108603436</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3640147030316413</v>
+        <v>0.2065410263777386</v>
       </c>
       <c r="C12">
-        <v>0.295507711588935</v>
+        <v>0.09455665729810064</v>
       </c>
       <c r="D12">
-        <v>0.2240079868302007</v>
+        <v>0.03193016037341005</v>
       </c>
       <c r="E12">
-        <v>0.1199144965730862</v>
+        <v>0.02360930385611331</v>
       </c>
       <c r="F12">
-        <v>0.04291509281702105</v>
-      </c>
-      <c r="G12">
-        <v>0.01838965914839039</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.01407254751407071</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.185441441106927</v>
+        <v>0.1019398262003355</v>
       </c>
       <c r="C13">
-        <v>0.1574762422289916</v>
+        <v>0.05975259352971336</v>
       </c>
       <c r="D13">
-        <v>0.1276718904533271</v>
+        <v>0.03084369383383696</v>
       </c>
       <c r="E13">
-        <v>0.08233724576769437</v>
+        <v>0.02635530073492147</v>
       </c>
       <c r="F13">
-        <v>0.04530457023566227</v>
-      </c>
-      <c r="G13">
-        <v>0.03163799837757163</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.02085761728843198</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.240573586461777</v>
+        <v>0.1266289586198621</v>
       </c>
       <c r="C14">
-        <v>0.1931142101528881</v>
+        <v>0.06718225358624794</v>
       </c>
       <c r="D14">
-        <v>0.1440721388411219</v>
+        <v>0.0231862288772034</v>
       </c>
       <c r="E14">
-        <v>0.07419958791591055</v>
+        <v>0.01594982593738486</v>
       </c>
       <c r="F14">
-        <v>0.02511798730583255</v>
-      </c>
-      <c r="G14">
-        <v>0.01071735782880529</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.006860653455907494</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6207618836417297</v>
+        <v>0.2976508555985564</v>
       </c>
       <c r="C15">
-        <v>0.4692676266315756</v>
+        <v>0.1061721990364849</v>
       </c>
       <c r="D15">
-        <v>0.3196275093698313</v>
+        <v>0.02450664042785489</v>
       </c>
       <c r="E15">
-        <v>0.127588016218601</v>
+        <v>0.01576114167304739</v>
       </c>
       <c r="F15">
-        <v>0.02511298105257642</v>
-      </c>
-      <c r="G15">
-        <v>0.006712164578171642</v>
-      </c>
-      <c r="H15" t="s">
+        <v>0.006589981048604206</v>
+      </c>
+      <c r="G15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -802,356 +751,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F2" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="G2" s="1">
         <v>0.95</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6313580303859649</v>
+        <v>0.3445526098575326</v>
       </c>
       <c r="C4">
-        <v>0.4554774996964898</v>
+        <v>0.1356676228136161</v>
       </c>
       <c r="D4">
-        <v>0.2877727284817902</v>
+        <v>0.03404081359624613</v>
       </c>
       <c r="E4">
-        <v>0.09094779071856665</v>
+        <v>0.0219415854276738</v>
       </c>
       <c r="F4">
-        <v>0.01007953782946308</v>
-      </c>
-      <c r="G4">
-        <v>0.001546293115470193</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.008693125111152528</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.15882300353196</v>
+        <v>0.9115667926987064</v>
       </c>
       <c r="C5">
-        <v>0.8289226748952592</v>
+        <v>0.3403353924737174</v>
       </c>
       <c r="D5">
-        <v>0.5164087580088457</v>
+        <v>0.0807701416222877</v>
       </c>
       <c r="E5">
-        <v>0.1559069573191776</v>
+        <v>0.05151214058284941</v>
       </c>
       <c r="F5">
-        <v>0.01535779364830919</v>
-      </c>
-      <c r="G5">
-        <v>0.002101248673129386</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.02018512755639887</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.748995308216649</v>
+        <v>1.219159675511215</v>
       </c>
       <c r="C6">
-        <v>2.080054146103676</v>
+        <v>0.541925748932407</v>
       </c>
       <c r="D6">
-        <v>1.419218381445473</v>
+        <v>0.170557973378685</v>
       </c>
       <c r="E6">
-        <v>0.5708838860898873</v>
+        <v>0.121967240425205</v>
       </c>
       <c r="F6">
-        <v>0.1178166011784711</v>
-      </c>
-      <c r="G6">
-        <v>0.03632892670356136</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.06663334011411801</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.095764427884832</v>
+        <v>1.047357331540879</v>
       </c>
       <c r="C7">
-        <v>1.59930599861999</v>
+        <v>0.5652607805005199</v>
       </c>
       <c r="D7">
-        <v>1.105806523229216</v>
+        <v>0.2329928042365736</v>
       </c>
       <c r="E7">
-        <v>0.4626836428952862</v>
+        <v>0.1811802711533833</v>
       </c>
       <c r="F7">
-        <v>0.1045209928730847</v>
-      </c>
-      <c r="G7">
-        <v>0.03473792607048354</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.1175972287107609</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.985087720671466</v>
+        <v>1.407146536126586</v>
       </c>
       <c r="C8">
-        <v>1.51301483779347</v>
+        <v>0.6819784659027498</v>
       </c>
       <c r="D8">
-        <v>1.044092484923417</v>
+        <v>0.2381229628214327</v>
       </c>
       <c r="E8">
-        <v>0.4340535827029869</v>
+        <v>0.1748851191074022</v>
       </c>
       <c r="F8">
-        <v>0.09593452557010362</v>
-      </c>
-      <c r="G8">
-        <v>0.03064935587547979</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.1002338037901789</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.625234949814799</v>
+        <v>1.545545456381028</v>
       </c>
       <c r="C9">
-        <v>2.165536125019067</v>
+        <v>0.5263077290132594</v>
       </c>
       <c r="D9">
-        <v>1.196207036529775</v>
+        <v>0.1358978001806352</v>
       </c>
       <c r="E9">
-        <v>0.4207615094252345</v>
+        <v>0.09761245044999892</v>
       </c>
       <c r="F9">
-        <v>0.1360034270129608</v>
-      </c>
-      <c r="G9">
-        <v>0.07570802693613804</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.05885697031196221</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.53864322709903</v>
+        <v>0.750146368989444</v>
       </c>
       <c r="C10">
-        <v>1.161557685349059</v>
+        <v>0.3463985141642372</v>
       </c>
       <c r="D10">
-        <v>0.7897053216131806</v>
+        <v>0.110842349301021</v>
       </c>
       <c r="E10">
-        <v>0.3144239751358127</v>
+        <v>0.07849937974138005</v>
       </c>
       <c r="F10">
-        <v>0.06368701444719821</v>
-      </c>
-      <c r="G10">
-        <v>0.0196478456728108</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.0409130574789342</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.54598812661069</v>
+        <v>0.2519602251679946</v>
       </c>
       <c r="C11">
-        <v>0.4098973183996531</v>
+        <v>0.1504345320331589</v>
       </c>
       <c r="D11">
-        <v>0.2765949863147136</v>
+        <v>0.06194748952446549</v>
       </c>
       <c r="E11">
-        <v>0.1090186905408364</v>
+        <v>0.04553622638328836</v>
       </c>
       <c r="F11">
-        <v>0.02468843910443622</v>
-      </c>
-      <c r="G11">
-        <v>0.01118592477054819</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.02379492389359253</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.310185872765625</v>
+        <v>0.176794609618063</v>
       </c>
       <c r="C12">
-        <v>0.2259099703769335</v>
+        <v>0.08773742420798254</v>
       </c>
       <c r="D12">
-        <v>0.1529047253847967</v>
+        <v>0.03004796271793653</v>
       </c>
       <c r="E12">
-        <v>0.07005984192490421</v>
+        <v>0.02146462150743499</v>
       </c>
       <c r="F12">
-        <v>0.02314027276883319</v>
-      </c>
-      <c r="G12">
-        <v>0.00959926189204602</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.01114254947611319</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1752534411649134</v>
+        <v>0.1440081821760257</v>
       </c>
       <c r="C13">
-        <v>0.1449006014909647</v>
+        <v>0.06456268679350902</v>
       </c>
       <c r="D13">
-        <v>0.1132574822576665</v>
+        <v>0.0216257500213077</v>
       </c>
       <c r="E13">
-        <v>0.0654644903726867</v>
+        <v>0.01607121558597785</v>
       </c>
       <c r="F13">
-        <v>0.02300885419380426</v>
-      </c>
-      <c r="G13">
-        <v>0.003744877545868663</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.00977585042553088</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1969829686086104</v>
+        <v>0.1388767611447857</v>
       </c>
       <c r="C14">
-        <v>0.1587186753737298</v>
+        <v>0.07254888537140808</v>
       </c>
       <c r="D14">
-        <v>0.1190509076614338</v>
+        <v>0.02658122826920121</v>
       </c>
       <c r="E14">
-        <v>0.0621351843781161</v>
+        <v>0.01938330712826762</v>
       </c>
       <c r="F14">
-        <v>0.0214676916392091</v>
-      </c>
-      <c r="G14">
-        <v>0.009203384669990142</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.01053423376458343</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.312095750783907</v>
+        <v>0.1992673238593177</v>
       </c>
       <c r="C15">
-        <v>0.2393964688981134</v>
+        <v>0.08977017832222911</v>
       </c>
       <c r="D15">
-        <v>0.1669113413198853</v>
+        <v>0.03042013995792309</v>
       </c>
       <c r="E15">
-        <v>0.07176165701948403</v>
+        <v>0.02272490899027784</v>
       </c>
       <c r="F15">
-        <v>0.01770428354865483</v>
-      </c>
-      <c r="G15">
-        <v>0.006769530445377328</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
+        <v>0.0139950656339099</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1161,355 +1071,316 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F2" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="G2" s="1">
         <v>0.95</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.71130058561296</v>
+        <v>6.397275376224246</v>
       </c>
       <c r="C4">
-        <v>8.603232607253819</v>
+        <v>1.598247515168746</v>
       </c>
       <c r="D4">
-        <v>5.601253956513973</v>
+        <v>0.2651422263167511</v>
       </c>
       <c r="E4">
-        <v>1.958559004971063</v>
+        <v>0.1654982532496562</v>
       </c>
       <c r="F4">
-        <v>0.3049296129311765</v>
-      </c>
-      <c r="G4">
-        <v>0.08994075070725271</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.07475900452000493</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.61389714819051</v>
+        <v>15.35973220173869</v>
       </c>
       <c r="C5">
-        <v>10.35778192941929</v>
+        <v>3.56434092276161</v>
       </c>
       <c r="D5">
-        <v>7.126138844565046</v>
+        <v>0.5613934367117311</v>
       </c>
       <c r="E5">
-        <v>2.930557152100896</v>
+        <v>0.3533262175146823</v>
       </c>
       <c r="F5">
-        <v>0.6182485029377673</v>
-      </c>
-      <c r="G5">
-        <v>0.1765495919939433</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.1692274375698987</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.58474617113763</v>
+        <v>3729.401010912612</v>
       </c>
       <c r="C6">
-        <v>21.42238254990914</v>
+        <v>5.295803868487503</v>
       </c>
       <c r="D6">
-        <v>14.39324461911442</v>
+        <v>0.001648385740158213</v>
       </c>
       <c r="E6">
-        <v>5.514506561943978</v>
+        <v>0.0002441617851288323</v>
       </c>
       <c r="F6">
-        <v>0.9849286088731493</v>
-      </c>
-      <c r="G6">
-        <v>0.2398323077445106</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1.440157129385144E-05</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.34406077587588</v>
+        <v>22.08863751018391</v>
       </c>
       <c r="C7">
-        <v>19.04434962199593</v>
+        <v>6.677711674458309</v>
       </c>
       <c r="D7">
-        <v>12.86219291475915</v>
+        <v>1.402196299335051</v>
       </c>
       <c r="E7">
-        <v>5.054476121731431</v>
+        <v>0.9310676784013791</v>
       </c>
       <c r="F7">
-        <v>1.072995711860317</v>
-      </c>
-      <c r="G7">
-        <v>0.4186112294120372</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.4714673550389736</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.65686988783294</v>
+        <v>1433.829167781782</v>
       </c>
       <c r="C8">
-        <v>11.11867031231808</v>
+        <v>2.182500894357841</v>
       </c>
       <c r="D8">
-        <v>7.614692629970699</v>
+        <v>0.0007399932918047192</v>
       </c>
       <c r="E8">
-        <v>3.089416985064662</v>
+        <v>0.0001118489234330853</v>
       </c>
       <c r="F8">
-        <v>0.6316290035320975</v>
-      </c>
-      <c r="G8">
-        <v>0.1750581922762002</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>6.798059475446456E-06</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.55310792134557</v>
+        <v>15.67501770176615</v>
       </c>
       <c r="C9">
-        <v>15.01966364140708</v>
+        <v>3.456854554290026</v>
       </c>
       <c r="D9">
-        <v>9.691347657051342</v>
+        <v>0.5043661377573163</v>
       </c>
       <c r="E9">
-        <v>3.276129223264531</v>
+        <v>0.308948234183509</v>
       </c>
       <c r="F9">
-        <v>0.4305961075125637</v>
-      </c>
-      <c r="G9">
-        <v>0.07795070616186539</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.1389934431732872</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>56.69799393748775</v>
+        <v>2462531.426440382</v>
       </c>
       <c r="C10">
-        <v>40.77678528635764</v>
+        <v>42.16638426316885</v>
       </c>
       <c r="D10">
-        <v>25.6433776258103</v>
+        <v>5.691895720471799E-05</v>
       </c>
       <c r="E10">
-        <v>8.028660945394865</v>
+        <v>2.328419051447678E-06</v>
       </c>
       <c r="F10">
-        <v>0.9707635614157457</v>
-      </c>
-      <c r="G10">
-        <v>0.2648032223205163</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>2.039604046196475E-08</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>98.24649322381947</v>
+        <v>98.07340510653509</v>
       </c>
       <c r="C11">
-        <v>67.02369815082805</v>
+        <v>0.4288564545159382</v>
       </c>
       <c r="D11">
-        <v>38.53465296293017</v>
+        <v>0.0005333025618938869</v>
       </c>
       <c r="E11">
-        <v>8.875544151271688</v>
+        <v>0.0001096115852460875</v>
       </c>
       <c r="F11">
-        <v>0.4717213571014369</v>
-      </c>
-      <c r="G11">
-        <v>0.08309741710220919</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>1.050618985656241E-05</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>53.18177927337796</v>
+        <v>30.62434301499047</v>
       </c>
       <c r="C12">
-        <v>39.55592353162886</v>
+        <v>3.737096682937671</v>
       </c>
       <c r="D12">
-        <v>26.25909672523889</v>
+        <v>0.2774258413442215</v>
       </c>
       <c r="E12">
-        <v>9.698710494881853</v>
+        <v>0.148845835987252</v>
       </c>
       <c r="F12">
-        <v>1.585974021378211</v>
-      </c>
-      <c r="G12">
-        <v>0.3547197790401206</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.05805791152364748</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>42.03988666753942</v>
+        <v>924.6806124622716</v>
       </c>
       <c r="C13">
-        <v>29.4379116838652</v>
+        <v>1.996670704087831</v>
       </c>
       <c r="D13">
-        <v>17.70043475586873</v>
+        <v>0.001041329916345666</v>
       </c>
       <c r="E13">
-        <v>4.763968763655205</v>
+        <v>0.0001742690225629245</v>
       </c>
       <c r="F13">
-        <v>0.3816968056738936</v>
-      </c>
-      <c r="G13">
-        <v>0.07794442556208736</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>1.231758719098871E-05</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.36222588421098</v>
+        <v>56.73730660598064</v>
       </c>
       <c r="C14">
-        <v>11.56664653439463</v>
+        <v>0.1687472984047512</v>
       </c>
       <c r="D14">
-        <v>7.065217979899782</v>
+        <v>0.0001305446829001148</v>
       </c>
       <c r="E14">
-        <v>1.998275488359257</v>
+        <v>2.398223662616406E-05</v>
       </c>
       <c r="F14">
-        <v>0.1659817349608392</v>
-      </c>
-      <c r="G14">
-        <v>0.01924710459209145</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>1.946346810916629E-06</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.01899747886237</v>
+        <v>8.593863135452267</v>
       </c>
       <c r="C15">
-        <v>8.742178133357413</v>
+        <v>1.764342488408638</v>
       </c>
       <c r="D15">
-        <v>5.598041886835006</v>
+        <v>0.2337489772638096</v>
       </c>
       <c r="E15">
-        <v>1.847179599942574</v>
+        <v>0.1389753919061045</v>
       </c>
       <c r="F15">
-        <v>0.2284486762612326</v>
-      </c>
-      <c r="G15">
-        <v>0.03898432049063638</v>
-      </c>
-      <c r="H15" t="s">
+        <v>0.05857603380397911</v>
+      </c>
+      <c r="G15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1520,355 +1391,316 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="E2" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F2" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="G2" s="1">
         <v>0.95</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8998815182814537</v>
+        <v>0.5467307935544909</v>
       </c>
       <c r="C4">
-        <v>0.7372521724928762</v>
+        <v>0.2323226566674575</v>
       </c>
       <c r="D4">
-        <v>0.5658358423289007</v>
+        <v>0.06422040142299042</v>
       </c>
       <c r="E4">
-        <v>0.3110040038707622</v>
+        <v>0.04265690580360479</v>
       </c>
       <c r="F4">
-        <v>0.113174585340865</v>
-      </c>
-      <c r="G4">
-        <v>0.04536380031291648</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.01830355334694357</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3220095451513918</v>
+        <v>5462.032769844117</v>
       </c>
       <c r="C5">
-        <v>0.2358101628233894</v>
+        <v>0.3745627625630653</v>
       </c>
       <c r="D5">
-        <v>0.1526739591691725</v>
+        <v>2.791790990726068E-06</v>
       </c>
       <c r="E5">
-        <v>0.0521687001354137</v>
+        <v>1.710753081766544E-07</v>
       </c>
       <c r="F5">
-        <v>0.007043638018765438</v>
-      </c>
-      <c r="G5">
-        <v>0.001308802042806936</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>2.727657366366801E-09</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.174910369240121</v>
+        <v>0.6953114295333638</v>
       </c>
       <c r="C6">
-        <v>0.9478660426858105</v>
+        <v>0.2907923256470745</v>
       </c>
       <c r="D6">
-        <v>0.7119991050624026</v>
+        <v>0.06844928915121948</v>
       </c>
       <c r="E6">
-        <v>0.3720257513252619</v>
+        <v>0.03930395410300572</v>
       </c>
       <c r="F6">
-        <v>0.1264315415503959</v>
-      </c>
-      <c r="G6">
-        <v>0.05106227422275433</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.006088470150633296</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.624041862641482</v>
+        <v>2.042625126288512</v>
       </c>
       <c r="C7">
-        <v>2.933364101419146</v>
+        <v>1.080838399216489</v>
       </c>
       <c r="D7">
-        <v>2.222691678708161</v>
+        <v>0.3603955621023797</v>
       </c>
       <c r="E7">
-        <v>1.219652352846569</v>
+        <v>0.2408310761849231</v>
       </c>
       <c r="F7">
-        <v>0.531167365180425</v>
-      </c>
-      <c r="G7">
-        <v>0.3366689860102619</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.09006228411920825</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.133799411920783</v>
+        <v>1.012206124063977</v>
       </c>
       <c r="C8">
-        <v>1.525513508280621</v>
+        <v>0.4329474044423248</v>
       </c>
       <c r="D8">
-        <v>0.9495254811035645</v>
+        <v>0.1185520244418657</v>
       </c>
       <c r="E8">
-        <v>0.2858265075657213</v>
+        <v>0.07774498139330752</v>
       </c>
       <c r="F8">
-        <v>0.02794198463342557</v>
-      </c>
-      <c r="G8">
-        <v>0.003794844415442533</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.03143105041125269</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.398536480086142</v>
+        <v>4469.831933105379</v>
       </c>
       <c r="C9">
-        <v>1.779939249732554</v>
+        <v>2.210735900753795</v>
       </c>
       <c r="D9">
-        <v>1.17731267425795</v>
+        <v>0.0001877549406726868</v>
       </c>
       <c r="E9">
-        <v>0.4299963402131372</v>
+        <v>2.045531487653023E-05</v>
       </c>
       <c r="F9">
-        <v>0.06842704372094011</v>
-      </c>
-      <c r="G9">
-        <v>0.01490750723396417</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>7.652678386025605E-07</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2466217497556208</v>
+        <v>0.3105725428650119</v>
       </c>
       <c r="C10">
-        <v>0.2466217497556208</v>
+        <v>0.2393716359744417</v>
       </c>
       <c r="D10">
-        <v>0.2466217497556208</v>
+        <v>0.1645777778676775</v>
       </c>
       <c r="E10">
-        <v>0.2466217497556207</v>
+        <v>0.1487315276762667</v>
       </c>
       <c r="F10">
-        <v>0.2466217497556207</v>
-      </c>
-      <c r="G10">
-        <v>0.2466217497556207</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.1264252675141154</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2840588768115944</v>
+        <v>0.3656938357159938</v>
       </c>
       <c r="C11">
-        <v>0.2840588768115944</v>
+        <v>0.2780088177666586</v>
       </c>
       <c r="D11">
-        <v>0.2840588768115944</v>
+        <v>0.1814784839313559</v>
       </c>
       <c r="E11">
-        <v>0.2840588768115943</v>
+        <v>0.1603461192425925</v>
       </c>
       <c r="F11">
-        <v>0.2840588768115942</v>
-      </c>
-      <c r="G11">
-        <v>0.2840588768115942</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.1301427204034168</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3791301303810045</v>
+        <v>0.2322787084142478</v>
       </c>
       <c r="C12">
-        <v>0.3080179670424069</v>
+        <v>0.1304367854581837</v>
       </c>
       <c r="D12">
-        <v>0.2343959266785022</v>
+        <v>0.05272295110824468</v>
       </c>
       <c r="E12">
-        <v>0.1290697943735123</v>
+        <v>0.03964699780345589</v>
       </c>
       <c r="F12">
-        <v>0.05433980877017962</v>
-      </c>
-      <c r="G12">
-        <v>0.03205626326335956</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.02305845437956809</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1493591368496241</v>
+        <v>0.1072527645242501</v>
       </c>
       <c r="C13">
-        <v>0.1269629354463915</v>
+        <v>0.05748630757699344</v>
       </c>
       <c r="D13">
-        <v>0.1036146860243215</v>
+        <v>0.02540029188669322</v>
       </c>
       <c r="E13">
-        <v>0.06835006223896405</v>
+        <v>0.02064347613661255</v>
       </c>
       <c r="F13">
-        <v>0.03702366942766089</v>
-      </c>
-      <c r="G13">
-        <v>0.02280951663441716</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01493188122440202</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2123163391457566</v>
+        <v>0.1407663902643516</v>
       </c>
       <c r="C14">
-        <v>0.158816732954204</v>
+        <v>0.05463912617790484</v>
       </c>
       <c r="D14">
-        <v>0.1063864271967152</v>
+        <v>0.01464497283824432</v>
       </c>
       <c r="E14">
-        <v>0.04039150315957208</v>
+        <v>0.0100575951383938</v>
       </c>
       <c r="F14">
-        <v>0.00705904782953061</v>
-      </c>
-      <c r="G14">
-        <v>0.001683316298562706</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.005110722092182302</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.09098843468174186</v>
+        <v>9.278265851404527</v>
       </c>
       <c r="C15">
-        <v>0.06816530969375247</v>
+        <v>0.01002892783951809</v>
       </c>
       <c r="D15">
-        <v>0.04577273685389271</v>
+        <v>2.230723157056227E-06</v>
       </c>
       <c r="E15">
-        <v>0.01750675296025112</v>
+        <v>3.051760639497947E-07</v>
       </c>
       <c r="F15">
-        <v>0.003113959192834109</v>
-      </c>
-      <c r="G15">
-        <v>0.0007552553491260612</v>
-      </c>
-      <c r="H15" t="s">
+        <v>1.600028116414737E-08</v>
+      </c>
+      <c r="G15" t="s">
         <v>14</v>
       </c>
     </row>
